--- a/T3.xlsx
+++ b/T3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e535f8675989f1ab/code/autopython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_AD4DA82427541F7ACA7EB87900CB15986BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ADA7736-7886-4927-88B8-6C583F13D65F}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_AD4DA82427541F7ACA7EB87900CB15986BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE77B16-B583-4269-BEE2-897BC94AE111}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2200" yWindow="2060" windowWidth="22810" windowHeight="11530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="2850" windowWidth="23110" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,10 +345,11 @@
     <t>临安国瑞中心北区办公楼4F以下SFF_129-协调前波形图</t>
   </si>
   <si>
+    <t>杭州松木场_136-协调前波形图</t>
+  </si>
+  <si>
     <t>萧山会廊曹FDD900_129-协调前波形图</t>
-  </si>
-  <si>
-    <t>杭州松木场_136-协调前波形图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -751,7 +752,7 @@
   <dimension ref="A1:CW4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1368,7 +1369,7 @@
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1">
         <v>-110.15</v>
@@ -1573,7 +1574,7 @@
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1">
         <v>-99.716999999999999</v>
